--- a/Excel-XLSX/UN-CUW.xlsx
+++ b/Excel-XLSX/UN-CUW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,157 @@
     <t>1</t>
   </si>
   <si>
-    <t>OYp5Qi</t>
+    <t>OtN9y0</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>Curacao </t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>2010</t>
@@ -102,109 +252,25 @@
     <t>JAM</t>
   </si>
   <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>Curacao </t>
-  </si>
-  <si>
-    <t>CUW</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>185</t>
@@ -216,9 +282,6 @@
     <t>SYR</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>207</t>
   </si>
   <si>
@@ -228,58 +291,13 @@
     <t>VEN</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>23</t>
+    <t>29</t>
   </si>
   <si>
     <t>655</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>30</t>
   </si>
   <si>
     <t>279</t>
@@ -288,30 +306,12 @@
     <t>25686</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>296</t>
   </si>
   <si>
     <t>16190</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -324,16 +324,31 @@
     <t>2021</t>
   </si>
   <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>5226</t>
   </si>
   <si>
-    <t>17000</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>38</t>
   </si>
 </sst>
 </file>
@@ -718,7 +733,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -841,25 +856,25 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>32</v>
+      <c r="V2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -879,55 +894,55 @@
         <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>32</v>
+      <c r="V3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -941,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -971,31 +986,31 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>32</v>
+      <c r="V4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1009,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>32</v>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1077,61 +1092,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="2" t="s">
-        <v>32</v>
+      <c r="V6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1145,10 +1160,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1175,31 +1190,31 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>32</v>
+      <c r="V7" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1213,22 +1228,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1243,31 +1258,31 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="2" t="s">
-        <v>32</v>
+      <c r="V8" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1281,22 +1296,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1311,31 +1326,31 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="2" t="s">
-        <v>32</v>
+      <c r="V9" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1349,10 +1364,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -1379,31 +1394,31 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="2" t="s">
-        <v>32</v>
+      <c r="V10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1417,22 +1432,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1447,31 +1462,31 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>32</v>
+      <c r="V11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1485,22 +1500,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1515,31 +1530,31 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>32</v>
+      <c r="V12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1553,22 +1568,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1586,28 +1601,28 @@
         <v>31</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>32</v>
+      <c r="V13" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1621,22 +1636,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1651,31 +1666,31 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>32</v>
+      <c r="V14" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1689,22 +1704,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>28</v>
@@ -1719,31 +1734,31 @@
         <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>32</v>
+      <c r="V15" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1757,22 +1772,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1787,31 +1802,31 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>32</v>
+      <c r="V16" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1825,22 +1840,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1855,31 +1870,31 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>32</v>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1893,22 +1908,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -1923,31 +1938,31 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="2" t="s">
-        <v>32</v>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -1961,22 +1976,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -1991,31 +2006,31 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>32</v>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2029,22 +2044,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2059,31 +2074,31 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
+      <c r="V20" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2097,22 +2112,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2127,31 +2142,31 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="2" t="s">
-        <v>32</v>
+      <c r="V21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2165,22 +2180,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2195,31 +2210,31 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="2" t="s">
-        <v>32</v>
+      <c r="V22" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2233,22 +2248,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2263,31 +2278,31 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="2" t="s">
-        <v>32</v>
+      <c r="V23" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2301,22 +2316,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2331,31 +2346,31 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="2" t="s">
-        <v>32</v>
+      <c r="V24" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2369,22 +2384,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2399,31 +2414,31 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="2" t="s">
-        <v>32</v>
+      <c r="V25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2437,22 +2452,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2467,31 +2482,31 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="2" t="s">
-        <v>32</v>
+      <c r="V26" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2505,22 +2520,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2535,31 +2550,31 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="2" t="s">
-        <v>32</v>
+      <c r="V27" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2573,22 +2588,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2603,31 +2618,31 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="2" t="s">
-        <v>32</v>
+      <c r="V28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2641,22 +2656,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>28</v>
@@ -2671,31 +2686,31 @@
         <v>30</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2709,22 +2724,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2739,31 +2754,31 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="2" t="s">
-        <v>32</v>
+      <c r="V30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2780,19 +2795,19 @@
         <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2807,31 +2822,31 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="V31" s="2" t="s">
-        <v>32</v>
+      <c r="V31" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -2845,61 +2860,61 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32" s="2" t="s">
+      <c r="P32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>32</v>
+      <c r="V32" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -2916,58 +2931,58 @@
         <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>99</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V33" s="2" t="s">
-        <v>32</v>
+      <c r="V33" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -2981,22 +2996,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3011,31 +3026,31 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" s="2" t="s">
         <v>102</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3049,22 +3064,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>28</v>
@@ -3079,31 +3094,31 @@
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3117,61 +3132,61 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="V36" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3185,61 +3200,197 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>32</v>
+      <c r="F39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-CUW.xlsx
+++ b/Excel-XLSX/UN-CUW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>OtN9y0</t>
+    <t>K3zFsc</t>
   </si>
   <si>
     <t>2011</t>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>1700</t>
-  </si>
-  <si>
-    <t>38</t>
   </si>
 </sst>
 </file>
@@ -733,7 +730,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -873,8 +870,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -941,8 +938,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1009,8 +1006,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1077,8 +1074,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1145,8 +1142,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1213,8 +1210,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1281,8 +1278,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1349,8 +1346,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -1417,8 +1414,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -1485,8 +1482,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -1553,8 +1550,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1621,8 +1618,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1689,8 +1686,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -1757,8 +1754,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1825,8 +1822,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1893,8 +1890,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -1961,8 +1958,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2029,8 +2026,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2097,8 +2094,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2165,8 +2162,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -2233,8 +2230,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -2301,8 +2298,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -2369,8 +2366,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -2437,8 +2434,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26">
@@ -2505,8 +2502,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -2573,8 +2570,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -2641,8 +2638,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2709,8 +2706,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -2777,8 +2774,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -2845,8 +2842,8 @@
       <c r="U31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -2913,8 +2910,8 @@
       <c r="U32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -2981,8 +2978,8 @@
       <c r="U33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3049,8 +3046,8 @@
       <c r="U34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3322,74 +3319,6 @@
         <v>33</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V39" s="2" t="s">
         <v>109</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-CUW.xlsx
+++ b/Excel-XLSX/UN-CUW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,39 @@
     <t>K3zFsc</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>Curacao </t>
+  </si>
+  <si>
+    <t>CUW</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>2011</t>
   </si>
   <si>
@@ -102,34 +135,31 @@
     <t>COL</t>
   </si>
   <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>Curacao </t>
-  </si>
-  <si>
-    <t>CUW</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>2013</t>
@@ -138,7 +168,16 @@
     <t>14</t>
   </si>
   <si>
-    <t>4</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>2014</t>
@@ -150,6 +189,12 @@
     <t>13</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>2015</t>
   </si>
   <si>
@@ -159,13 +204,49 @@
     <t>15</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>2016</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>7</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>2017</t>
@@ -177,7 +258,13 @@
     <t>68</t>
   </si>
   <si>
-    <t>8</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>655</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
   <si>
     <t>2018</t>
@@ -189,19 +276,34 @@
     <t>57</t>
   </si>
   <si>
-    <t>9</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>25686</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
-    <t>10</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>16190</t>
   </si>
   <si>
     <t>2020</t>
@@ -210,108 +312,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>JAM</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>VEN</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>655</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>25686</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>16190</t>
-  </si>
-  <si>
     <t>32</t>
   </si>
   <si>
@@ -324,28 +324,34 @@
     <t>2021</t>
   </si>
   <si>
+    <t>5226</t>
+  </si>
+  <si>
     <t>17000</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>14000</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>5226</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1700</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -730,7 +736,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -853,25 +859,25 @@
         <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -891,16 +897,16 @@
         <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>28</v>
@@ -915,31 +921,31 @@
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -953,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -983,31 +989,31 @@
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1021,61 +1027,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1089,22 +1095,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>28</v>
@@ -1119,31 +1125,31 @@
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1157,10 +1163,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>25</v>
@@ -1187,31 +1193,31 @@
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1225,61 +1231,61 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="P8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1299,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>28</v>
@@ -1323,31 +1329,31 @@
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1361,10 +1367,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -1391,31 +1397,31 @@
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1429,22 +1435,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1459,31 +1465,31 @@
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1497,22 +1503,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1527,31 +1533,31 @@
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1565,22 +1571,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>28</v>
@@ -1598,28 +1604,28 @@
         <v>31</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1633,22 +1639,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1663,31 +1669,31 @@
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1701,61 +1707,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1769,22 +1775,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>28</v>
@@ -1799,31 +1805,31 @@
         <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1837,22 +1843,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>28</v>
@@ -1867,31 +1873,31 @@
         <v>30</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1905,22 +1911,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>28</v>
@@ -1935,31 +1941,31 @@
         <v>30</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -1973,22 +1979,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>28</v>
@@ -2003,31 +2009,31 @@
         <v>30</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2041,22 +2047,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>28</v>
@@ -2071,31 +2077,31 @@
         <v>30</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2109,22 +2115,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>28</v>
@@ -2139,31 +2145,31 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2177,22 +2183,22 @@
         <v>22</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>28</v>
@@ -2207,31 +2213,31 @@
         <v>30</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2245,22 +2251,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>28</v>
@@ -2275,31 +2281,31 @@
         <v>30</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2313,22 +2319,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>28</v>
@@ -2343,31 +2349,31 @@
         <v>30</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2381,22 +2387,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>28</v>
@@ -2411,31 +2417,31 @@
         <v>30</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2449,22 +2455,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>28</v>
@@ -2479,31 +2485,31 @@
         <v>30</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -2517,22 +2523,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>28</v>
@@ -2547,31 +2553,31 @@
         <v>30</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -2585,22 +2591,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>28</v>
@@ -2615,31 +2621,31 @@
         <v>30</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -2653,61 +2659,61 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="P29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="V29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -2721,22 +2727,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>28</v>
@@ -2751,31 +2757,31 @@
         <v>30</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -2792,19 +2798,19 @@
         <v>93</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>28</v>
@@ -2819,31 +2825,31 @@
         <v>30</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>94</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -2857,22 +2863,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>28</v>
@@ -2887,31 +2893,31 @@
         <v>30</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -2928,19 +2934,19 @@
         <v>98</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>28</v>
@@ -2955,31 +2961,31 @@
         <v>30</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>99</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U33" s="2" t="s">
         <v>100</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -2993,22 +2999,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>28</v>
@@ -3023,31 +3029,31 @@
         <v>30</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V34" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3061,61 +3067,61 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="V35" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3129,61 +3135,61 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V36" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -3200,19 +3206,19 @@
         <v>106</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>28</v>
@@ -3227,31 +3233,31 @@
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3268,19 +3274,19 @@
         <v>108</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>28</v>
@@ -3295,31 +3301,99 @@
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>109</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-CUW.xlsx
+++ b/Excel-XLSX/UN-CUW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>K3zFsc</t>
+    <t>3fIwt7</t>
   </si>
   <si>
     <t>2010</t>
@@ -352,6 +352,15 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>1278</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>11593</t>
   </si>
 </sst>
 </file>
@@ -736,7 +745,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -3345,54 +3354,122 @@
         <v>111</v>
       </c>
       <c r="F39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="V39" s="2" t="s">
+      <c r="J40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="V40" s="2" t="s">
         <v>32</v>
       </c>
     </row>
